--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-practitionerrole-education-level.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-practitionerrole-education-level.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="206">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T17:20:16+02:00</t>
+    <t>2023-07-18T12:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -319,6 +319,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension.extension:qualification</t>
   </si>
   <si>
@@ -368,9 +371,6 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:qualification.value[x]</t>
   </si>
   <si>
@@ -387,11 +387,13 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Liste des diplômes et qualifications.</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -401,21 +403,6 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:qualification.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Liste des diplômes et qualifications.</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS</t>
-  </si>
-  <si>
     <t>Extension.extension:qualificationType</t>
   </si>
   <si>
@@ -440,9 +427,6 @@
     <t>Extension.extension:qualificationType.value[x]</t>
   </si>
   <si>
-    <t>Extension.extension:qualificationType.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
     <t>Liste des types de diplômes.</t>
   </si>
   <si>
@@ -473,9 +457,6 @@
     <t>Extension.extension:academicDegree.value[x]</t>
   </si>
   <si>
-    <t>Extension.extension:academicDegree.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
     <t>Natures du cycle de formation des professionnels du RASS.</t>
   </si>
   <si>
@@ -506,9 +487,6 @@
     <t>Extension.extension:achievedLevel.value[x]</t>
   </si>
   <si>
-    <t>Extension.extension:achievedLevel.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
     <t>Liste des niveaux de formation</t>
   </si>
   <si>
@@ -537,9 +515,6 @@
   </si>
   <si>
     <t>Extension.extension:academicYear.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:academicYear.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>Listes des années universitaires.</t>
@@ -573,25 +548,19 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:period.value[x]:valuePeriod</t>
-  </si>
-  <si>
-    <t>valuePeriod</t>
-  </si>
-  <si>
-    <t>Extension.extension:period.value[x]:valuePeriod.id</t>
+    <t>Extension.extension:period.value[x].id</t>
   </si>
   <si>
     <t>Extension.extension.value[x].id</t>
   </si>
   <si>
-    <t>Extension.extension:period.value[x]:valuePeriod.extension</t>
+    <t>Extension.extension:period.value[x].extension</t>
   </si>
   <si>
     <t>Extension.extension.value[x].extension</t>
   </si>
   <si>
-    <t>Extension.extension:period.value[x]:valuePeriod.start</t>
+    <t>Extension.extension:period.value[x].start</t>
   </si>
   <si>
     <t>Extension.extension.value[x].start</t>
@@ -616,14 +585,14 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">per-1
-</t>
+    <t>ele-1
+per-1</t>
   </si>
   <si>
     <t>./low</t>
   </si>
   <si>
-    <t>Extension.extension:period.value[x]:valuePeriod.end</t>
+    <t>Extension.extension:period.value[x].end</t>
   </si>
   <si>
     <t>Extension.extension.value[x].end</t>
@@ -981,7 +950,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK51"/>
+  <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -990,42 +959,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.53125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.25390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.80859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.58203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="98.1796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="97.73828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1443,24 +1412,24 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>74</v>
@@ -1485,13 +1454,13 @@
         <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1550,7 +1519,7 @@
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>98</v>
@@ -1561,10 +1530,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1664,10 +1633,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1696,7 +1665,7 @@
         <v>28</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1756,7 +1725,7 @@
         <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>98</v>
@@ -1767,10 +1736,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1793,16 +1762,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1810,7 +1779,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>74</v>
@@ -1852,7 +1821,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>82</v>
@@ -1867,7 +1836,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1931,29 +1900,31 @@
         <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -1962,24 +1933,24 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>74</v>
@@ -2001,15 +1972,17 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2034,13 +2007,13 @@
         <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>74</v>
@@ -2058,22 +2031,22 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -2081,11 +2054,9 @@
         <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2106,17 +2077,15 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2165,30 +2134,30 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2199,7 +2168,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2211,13 +2180,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2256,42 +2225,42 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2299,10 +2268,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2314,22 +2283,24 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>74</v>
@@ -2359,42 +2330,42 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2402,7 +2373,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>82</v>
@@ -2417,24 +2388,22 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>74</v>
@@ -2452,13 +2421,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -2476,32 +2445,34 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>74</v>
       </c>
@@ -2522,15 +2493,17 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -2567,44 +2540,44 @@
         <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC15" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>74</v>
       </c>
@@ -2625,13 +2598,13 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2658,13 +2631,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -2682,7 +2655,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -2694,10 +2667,10 @@
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -2705,11 +2678,9 @@
         <v>141</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>74</v>
       </c>
@@ -2718,7 +2689,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -2733,14 +2704,12 @@
         <v>90</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -2777,16 +2746,16 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>97</v>
@@ -2798,7 +2767,7 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>98</v>
@@ -2809,10 +2778,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2820,7 +2789,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>82</v>
@@ -2835,22 +2804,24 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>74</v>
@@ -2892,10 +2863,10 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>82</v>
@@ -2907,15 +2878,15 @@
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2926,7 +2897,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -2938,13 +2909,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2971,62 +2942,64 @@
         <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>82</v>
@@ -3041,16 +3014,16 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3058,7 +3031,7 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>74</v>
@@ -3100,30 +3073,30 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3146,13 +3119,13 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3191,17 +3164,19 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3213,22 +3188,20 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3237,7 +3210,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -3249,13 +3222,13 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3282,46 +3255,46 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -3329,17 +3302,15 @@
         <v>152</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>82</v>
@@ -3354,16 +3325,16 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3371,7 +3342,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>74</v>
@@ -3413,30 +3384,30 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3459,13 +3430,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3492,13 +3463,13 @@
         <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>74</v>
@@ -3516,7 +3487,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -3525,23 +3496,25 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>74</v>
       </c>
@@ -3550,7 +3523,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -3565,12 +3538,14 @@
         <v>90</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -3607,16 +3582,16 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>97</v>
@@ -3628,7 +3603,7 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -3639,10 +3614,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3650,7 +3625,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>82</v>
@@ -3665,24 +3640,22 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>74</v>
@@ -3724,10 +3697,10 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>82</v>
@@ -3739,15 +3712,15 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3758,7 +3731,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -3770,13 +3743,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3815,50 +3788,50 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>82</v>
@@ -3873,22 +3846,24 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>74</v>
@@ -3906,13 +3881,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -3930,10 +3905,10 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>82</v>
@@ -3942,10 +3917,10 @@
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -3953,11 +3928,9 @@
         <v>163</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>74</v>
       </c>
@@ -3978,17 +3951,15 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4013,13 +3984,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4037,32 +4008,34 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4083,13 +4056,13 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4140,30 +4113,30 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4174,7 +4147,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4186,13 +4159,13 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4231,42 +4204,42 @@
         <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4274,10 +4247,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4289,24 +4262,22 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>74</v>
@@ -4336,42 +4307,42 @@
         <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4379,7 +4350,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>82</v>
@@ -4394,22 +4365,24 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>74</v>
@@ -4439,20 +4412,22 @@
         <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>82</v>
@@ -4461,22 +4436,20 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>74</v>
       </c>
@@ -4497,7 +4470,7 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>119</v>
@@ -4530,13 +4503,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -4554,7 +4527,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -4563,13 +4536,13 @@
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -4577,11 +4550,9 @@
         <v>174</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s" s="2">
         <v>175</v>
       </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>74</v>
       </c>
@@ -4602,13 +4573,13 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4659,41 +4630,41 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -4705,15 +4676,17 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -4750,34 +4723,34 @@
         <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
@@ -4785,7 +4758,7 @@
         <v>178</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4796,7 +4769,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -4805,18 +4778,20 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -4853,42 +4828,42 @@
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>74</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4896,7 +4871,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>82</v>
@@ -4908,27 +4883,29 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="R38" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>74</v>
@@ -4970,32 +4947,34 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>115</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5016,15 +4995,17 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -5061,44 +5042,44 @@
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>74</v>
       </c>
@@ -5119,13 +5100,13 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5176,7 +5157,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5188,18 +5169,18 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5210,7 +5191,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5222,13 +5203,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5267,53 +5248,53 @@
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -5325,16 +5306,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5342,7 +5323,7 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>74</v>
@@ -5372,42 +5353,42 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5427,20 +5408,18 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -5489,7 +5468,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -5498,21 +5477,21 @@
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>197</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5520,7 +5499,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>82</v>
@@ -5532,29 +5511,27 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q44" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>74</v>
@@ -5596,34 +5573,32 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>205</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>74</v>
       </c>
@@ -5632,7 +5607,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -5644,17 +5619,15 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -5703,644 +5676,22 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
